--- a/Code/Results/Cases/Case_2_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8136656692093425</v>
+        <v>0.2548275340367354</v>
       </c>
       <c r="C2">
-        <v>0.1186491462820243</v>
+        <v>0.05100019544823908</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5040897535406188</v>
+        <v>0.5837379712630479</v>
       </c>
       <c r="F2">
-        <v>1.286716185656971</v>
+        <v>2.014861140361404</v>
       </c>
       <c r="G2">
-        <v>0.1881692880864421</v>
+        <v>0.4002651927567982</v>
       </c>
       <c r="H2">
-        <v>0.2128155153694493</v>
+        <v>0.5773205202246245</v>
       </c>
       <c r="I2">
-        <v>0.1809362283297489</v>
+        <v>0.4603573165992358</v>
       </c>
       <c r="J2">
-        <v>0.02736035147735016</v>
+        <v>0.04075061024878224</v>
       </c>
       <c r="K2">
-        <v>0.8612295669475998</v>
+        <v>0.2669875471203795</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6819962220567675</v>
+        <v>0.4116067872690437</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7929524827640364</v>
+        <v>1.901172913236792</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7134174402847862</v>
+        <v>0.2224060481534025</v>
       </c>
       <c r="C3">
-        <v>0.107655805790202</v>
+        <v>0.04731724755653488</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4523517050127239</v>
+        <v>0.5733558073701417</v>
       </c>
       <c r="F3">
-        <v>1.198093462273405</v>
+        <v>2.007384071406719</v>
       </c>
       <c r="G3">
-        <v>0.1912386010166855</v>
+        <v>0.405329823849307</v>
       </c>
       <c r="H3">
-        <v>0.2197535901749958</v>
+        <v>0.5830368421796521</v>
       </c>
       <c r="I3">
-        <v>0.1910097553375092</v>
+        <v>0.4669261400233662</v>
       </c>
       <c r="J3">
-        <v>0.02730370889397982</v>
+        <v>0.04078715264090071</v>
       </c>
       <c r="K3">
-        <v>0.7590815150467733</v>
+        <v>0.2335551542479664</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5946708108064769</v>
+        <v>0.3878202468631144</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8136697184885406</v>
+        <v>1.923667207578859</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.651774911839226</v>
+        <v>0.2024267842359109</v>
       </c>
       <c r="C4">
-        <v>0.1008984967926665</v>
+        <v>0.0450433318645338</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4211123131092478</v>
+        <v>0.5672541858230957</v>
       </c>
       <c r="F4">
-        <v>1.145854760640859</v>
+        <v>2.003925152746646</v>
       </c>
       <c r="G4">
-        <v>0.1937606880274387</v>
+        <v>0.4087383533255107</v>
       </c>
       <c r="H4">
-        <v>0.2244221868273897</v>
+        <v>0.5867937445209463</v>
       </c>
       <c r="I4">
-        <v>0.1976978956719755</v>
+        <v>0.4712230754862468</v>
       </c>
       <c r="J4">
-        <v>0.02728454099230504</v>
+        <v>0.04081817130700216</v>
       </c>
       <c r="K4">
-        <v>0.6962564778132219</v>
+        <v>0.2129334820532591</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.541324756815861</v>
+        <v>0.3733402334961653</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8285898835333825</v>
+        <v>1.938622448692144</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6266274107532013</v>
+        <v>0.1942674612005533</v>
       </c>
       <c r="C5">
-        <v>0.09814240042609867</v>
+        <v>0.04411359653747127</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4085043590188135</v>
+        <v>0.5648364898840015</v>
       </c>
       <c r="F5">
-        <v>1.125082406058979</v>
+        <v>2.002800331980865</v>
       </c>
       <c r="G5">
-        <v>0.1949417682347629</v>
+        <v>0.4102024090473435</v>
       </c>
       <c r="H5">
-        <v>0.2264244304040197</v>
+        <v>0.5883868636693883</v>
       </c>
       <c r="I5">
-        <v>0.200545710135815</v>
+        <v>0.4730403769000677</v>
       </c>
       <c r="J5">
-        <v>0.02728059973277297</v>
+        <v>0.04083297782120354</v>
       </c>
       <c r="K5">
-        <v>0.6706229714843346</v>
+        <v>0.2045069160809447</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5196445640618492</v>
+        <v>0.3674712665587236</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8352019885451227</v>
+        <v>1.945004271801061</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6224498732665609</v>
+        <v>0.192911565283822</v>
       </c>
       <c r="C6">
-        <v>0.09768458908132516</v>
+        <v>0.04395902960483511</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4064179135939554</v>
+        <v>0.5644391894450393</v>
       </c>
       <c r="F6">
-        <v>1.121663396638368</v>
+        <v>2.002630754284098</v>
       </c>
       <c r="G6">
-        <v>0.1951469462489541</v>
+        <v>0.410450044720065</v>
       </c>
       <c r="H6">
-        <v>0.2267628412393634</v>
+        <v>0.5886551544301781</v>
       </c>
       <c r="I6">
-        <v>0.2010258592661778</v>
+        <v>0.4733461397415368</v>
       </c>
       <c r="J6">
-        <v>0.02728017743776334</v>
+        <v>0.04083556750565087</v>
       </c>
       <c r="K6">
-        <v>0.6663644815624963</v>
+        <v>0.2031063151932813</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5160478609294827</v>
+        <v>0.3664986564677903</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8363314558822879</v>
+        <v>1.946081325285569</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6514358823941677</v>
+        <v>0.2023168152869914</v>
       </c>
       <c r="C7">
-        <v>0.1008613377324536</v>
+        <v>0.04503080557962846</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4209417957968</v>
+        <v>0.5672213013749854</v>
       </c>
       <c r="F7">
-        <v>1.145572571739905</v>
+        <v>2.003908830138059</v>
       </c>
       <c r="G7">
-        <v>0.1937760047736887</v>
+        <v>0.4087577943286504</v>
       </c>
       <c r="H7">
-        <v>0.2244487897460274</v>
+        <v>0.5868149782013532</v>
       </c>
       <c r="I7">
-        <v>0.1977358122617989</v>
+        <v>0.4712473159852575</v>
       </c>
       <c r="J7">
-        <v>0.02728447224198405</v>
+        <v>0.04081836221096857</v>
       </c>
       <c r="K7">
-        <v>0.6959109107459511</v>
+        <v>0.2128199310626684</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5410321446392956</v>
+        <v>0.3732609535531068</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8286769298124455</v>
+        <v>1.938707352539694</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.779115488729218</v>
+        <v>0.2436639575179811</v>
       </c>
       <c r="C8">
-        <v>0.1148597976269201</v>
+        <v>0.04973296179205988</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4861344378219385</v>
+        <v>0.5801015804401999</v>
       </c>
       <c r="F8">
-        <v>1.25568776190191</v>
+        <v>2.012048120590805</v>
       </c>
       <c r="G8">
-        <v>0.1890909640049401</v>
+        <v>0.4019494025532637</v>
       </c>
       <c r="H8">
-        <v>0.2151211208391217</v>
+        <v>0.5792402473777756</v>
       </c>
       <c r="I8">
-        <v>0.1843026560373886</v>
+        <v>0.4625675075200597</v>
       </c>
       <c r="J8">
-        <v>0.02733754671715438</v>
+        <v>0.04076143389398013</v>
       </c>
       <c r="K8">
-        <v>0.8260275869401568</v>
+        <v>0.2554799162597021</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6518239382324751</v>
+        <v>0.4033794239959789</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7996262472903339</v>
+        <v>1.908691497613248</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.029042449825397</v>
+        <v>0.3241499366449148</v>
       </c>
       <c r="C9">
-        <v>0.1422824678704302</v>
+        <v>0.05885171298893965</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6186703504204445</v>
+        <v>0.6075240464848264</v>
       </c>
       <c r="F9">
-        <v>1.49041579529765</v>
+        <v>2.036992546899782</v>
       </c>
       <c r="G9">
-        <v>0.1852926604419451</v>
+        <v>0.3909732725698802</v>
       </c>
       <c r="H9">
-        <v>0.2002125792840701</v>
+        <v>0.566345259464903</v>
       </c>
       <c r="I9">
-        <v>0.1621448783971591</v>
+        <v>0.4476396313478777</v>
       </c>
       <c r="J9">
-        <v>0.02756816034097298</v>
+        <v>0.04071754021184759</v>
       </c>
       <c r="K9">
-        <v>1.080611937799176</v>
+        <v>0.338368125273746</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8717184569531398</v>
+        <v>0.4634227939562621</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7611084489086295</v>
+        <v>1.858911068301879</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.21279165533511</v>
+        <v>0.3828963921730235</v>
       </c>
       <c r="C10">
-        <v>0.1624597860277817</v>
+        <v>0.06548635687910576</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7196603936415471</v>
+        <v>0.628990383837575</v>
       </c>
       <c r="F10">
-        <v>1.676592236582493</v>
+        <v>2.060802677564226</v>
       </c>
       <c r="G10">
-        <v>0.1862703714579226</v>
+        <v>0.3843626676071921</v>
       </c>
       <c r="H10">
-        <v>0.1915272702033732</v>
+        <v>0.5580637616733455</v>
       </c>
       <c r="I10">
-        <v>0.1486981492966599</v>
+        <v>0.4379496403777665</v>
       </c>
       <c r="J10">
-        <v>0.02781867897421186</v>
+        <v>0.04072614477448333</v>
       </c>
       <c r="K10">
-        <v>1.267717650898504</v>
+        <v>0.398774590049527</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.035594667399465</v>
+        <v>0.5081249533812908</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7455129153158708</v>
+        <v>1.827881549641702</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.296509346236235</v>
+        <v>0.4095331179052266</v>
       </c>
       <c r="C11">
-        <v>0.1716569896403257</v>
+        <v>0.06849002154322648</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7665695473840515</v>
+        <v>0.6390425070479608</v>
       </c>
       <c r="F11">
-        <v>1.764808056133518</v>
+        <v>2.07282705502206</v>
       </c>
       <c r="G11">
-        <v>0.1876471111489622</v>
+        <v>0.3816721693352818</v>
       </c>
       <c r="H11">
-        <v>0.1881170190432613</v>
+        <v>0.5545548381997705</v>
       </c>
       <c r="I11">
-        <v>0.1432619895371037</v>
+        <v>0.4338191179042781</v>
       </c>
       <c r="J11">
-        <v>0.02795118178921818</v>
+        <v>0.04073883782801246</v>
       </c>
       <c r="K11">
-        <v>1.352950500488674</v>
+        <v>0.4261437471649288</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.110821544349356</v>
+        <v>0.528587068439144</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7415192587302926</v>
+        <v>1.814971105925721</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.328238033491886</v>
+        <v>0.4196066837079968</v>
       </c>
       <c r="C12">
-        <v>0.1751433875051873</v>
+        <v>0.06962529392416172</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7844881981280452</v>
+        <v>0.6428901979744523</v>
       </c>
       <c r="F12">
-        <v>1.798767884339597</v>
+        <v>2.077551973268243</v>
       </c>
       <c r="G12">
-        <v>0.1883126015564471</v>
+        <v>0.3806989892391073</v>
       </c>
       <c r="H12">
-        <v>0.1869077433711013</v>
+        <v>0.5532632302441982</v>
       </c>
       <c r="I12">
-        <v>0.1413072610986656</v>
+        <v>0.4322949366205044</v>
       </c>
       <c r="J12">
-        <v>0.02800410447244772</v>
+        <v>0.04074489876068554</v>
       </c>
       <c r="K12">
-        <v>1.38525147494957</v>
+        <v>0.4364913990845309</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.139420733099499</v>
+        <v>0.536353525599651</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7404834603200783</v>
+        <v>1.810255709237978</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.321403374934107</v>
+        <v>0.4174377573821459</v>
       </c>
       <c r="C13">
-        <v>0.1743923522687254</v>
+        <v>0.06938088944335163</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7806219279593876</v>
+        <v>0.642059699389506</v>
       </c>
       <c r="F13">
-        <v>1.79142857234676</v>
+        <v>2.076526748116692</v>
       </c>
       <c r="G13">
-        <v>0.1881626969053585</v>
+        <v>0.3809065487661982</v>
       </c>
       <c r="H13">
-        <v>0.1871644581886258</v>
+        <v>0.5535397492136624</v>
       </c>
       <c r="I13">
-        <v>0.1417235308066846</v>
+        <v>0.432621418342892</v>
       </c>
       <c r="J13">
-        <v>0.02799258312847286</v>
+        <v>0.04074353777038375</v>
       </c>
       <c r="K13">
-        <v>1.378293625740582</v>
+        <v>0.4342635888844768</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.133256139310646</v>
+        <v>0.5346800895794956</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7406848363480805</v>
+        <v>1.811263533892173</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.299119102879587</v>
+        <v>0.4103621440336269</v>
       </c>
       <c r="C14">
-        <v>0.1719437393963261</v>
+        <v>0.06858346457831033</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7680405200670748</v>
+        <v>0.6393582343444848</v>
       </c>
       <c r="F14">
-        <v>1.767590554441952</v>
+        <v>2.073212338877624</v>
       </c>
       <c r="G14">
-        <v>0.1876989121266561</v>
+        <v>0.3815911896239896</v>
       </c>
       <c r="H14">
-        <v>0.1880158596019683</v>
+        <v>0.5544478324372974</v>
       </c>
       <c r="I14">
-        <v>0.1430990567485146</v>
+        <v>0.4336929214710104</v>
       </c>
       <c r="J14">
-        <v>0.0279554802425217</v>
+        <v>0.04073931137145692</v>
       </c>
       <c r="K14">
-        <v>1.355607367670785</v>
+        <v>0.4269953880722142</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.11317207534649</v>
+        <v>0.5292256628215455</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7414243105453693</v>
+        <v>1.814579688755984</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.285473057453373</v>
+        <v>0.4060263910517108</v>
       </c>
       <c r="C15">
-        <v>0.1704443942949752</v>
+        <v>0.0680947367338689</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7603547461134639</v>
+        <v>0.6377088676682803</v>
       </c>
       <c r="F15">
-        <v>1.753062757628285</v>
+        <v>2.071204507780479</v>
       </c>
       <c r="G15">
-        <v>0.1874339148147897</v>
+        <v>0.382016500633874</v>
       </c>
       <c r="H15">
-        <v>0.1885481950598091</v>
+        <v>0.5550088967928843</v>
       </c>
       <c r="I15">
-        <v>0.1439553096013491</v>
+        <v>0.4343544533601591</v>
       </c>
       <c r="J15">
-        <v>0.0279331138351715</v>
+        <v>0.04073688569563316</v>
       </c>
       <c r="K15">
-        <v>1.341714909626603</v>
+        <v>0.4225412437941145</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.100885102669999</v>
+        <v>0.5258869895339444</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7419402581282952</v>
+        <v>1.816633531903079</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.207323780810754</v>
+        <v>0.3811538086025337</v>
       </c>
       <c r="C16">
-        <v>0.16185917885295</v>
+        <v>0.06528976322373126</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7166155892585522</v>
+        <v>0.6283392203872467</v>
       </c>
       <c r="F16">
-        <v>1.670902028362335</v>
+        <v>2.06004086230547</v>
       </c>
       <c r="G16">
-        <v>0.1862000035052205</v>
+        <v>0.3845448804038796</v>
       </c>
       <c r="H16">
-        <v>0.1917613851330913</v>
+        <v>0.5582982764539111</v>
       </c>
       <c r="I16">
-        <v>0.1490676133474338</v>
+        <v>0.4382251683665483</v>
       </c>
       <c r="J16">
-        <v>0.02781039947248409</v>
+        <v>0.04072549121805658</v>
       </c>
       <c r="K16">
-        <v>1.262150538961635</v>
+        <v>0.3969836829905944</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.030693312400714</v>
+        <v>0.5067902295212932</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7458388797990381</v>
+        <v>1.82874954523102</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.159420359336082</v>
+        <v>0.3658724710269325</v>
       </c>
       <c r="C17">
-        <v>0.1565978116208981</v>
+        <v>0.06356524745493175</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.69004199658103</v>
+        <v>0.6226646782938872</v>
       </c>
       <c r="F17">
-        <v>1.621434398026182</v>
+        <v>2.053497885075799</v>
       </c>
       <c r="G17">
-        <v>0.1856887485776184</v>
+        <v>0.3861771538218335</v>
       </c>
       <c r="H17">
-        <v>0.1938740812599917</v>
+        <v>0.5603823734813957</v>
       </c>
       <c r="I17">
-        <v>0.1523823246879683</v>
+        <v>0.440670839802241</v>
       </c>
       <c r="J17">
-        <v>0.02773992276737758</v>
+        <v>0.04072074380956003</v>
       </c>
       <c r="K17">
-        <v>1.213376143232978</v>
+        <v>0.3812763130590326</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9878169550678635</v>
+        <v>0.4951072357231254</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7490459324833409</v>
+        <v>1.836491126920208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.131879228418597</v>
+        <v>0.3570748670322246</v>
       </c>
       <c r="C18">
-        <v>0.1535732855927279</v>
+        <v>0.06257199393517965</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6748476847375997</v>
+        <v>0.6194278493738352</v>
       </c>
       <c r="F18">
-        <v>1.593310492026546</v>
+        <v>2.049846831815273</v>
       </c>
       <c r="G18">
-        <v>0.1854817664970341</v>
+        <v>0.3871457968659087</v>
       </c>
       <c r="H18">
-        <v>0.1951398684473276</v>
+        <v>0.5616054105887045</v>
       </c>
       <c r="I18">
-        <v>0.1543525658289493</v>
+        <v>0.4421036420390916</v>
       </c>
       <c r="J18">
-        <v>0.0277011264604905</v>
+        <v>0.04071884000513926</v>
       </c>
       <c r="K18">
-        <v>1.185332931925046</v>
+        <v>0.3722315286544813</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9632185474762309</v>
+        <v>0.4883994498220687</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7511804642103641</v>
+        <v>1.84105729062702</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.122556040810537</v>
+        <v>0.3540947631933875</v>
       </c>
       <c r="C19">
-        <v>0.1525494923344155</v>
+        <v>0.06223546431041882</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6697181631313214</v>
+        <v>0.61833655797723</v>
       </c>
       <c r="F19">
-        <v>1.583843251514665</v>
+        <v>2.048629934799564</v>
       </c>
       <c r="G19">
-        <v>0.1854263433520202</v>
+        <v>0.3874788779420086</v>
       </c>
       <c r="H19">
-        <v>0.1955770081232444</v>
+        <v>0.5620236871131539</v>
       </c>
       <c r="I19">
-        <v>0.1550304226475436</v>
+        <v>0.4425932482023818</v>
       </c>
       <c r="J19">
-        <v>0.02768828716958538</v>
+        <v>0.04071833765526556</v>
       </c>
       <c r="K19">
-        <v>1.17583955018597</v>
+        <v>0.3691673667001965</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9549003261641786</v>
+        <v>0.4861303740158789</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7519520725423803</v>
+        <v>1.842622786729223</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.164518498351811</v>
+        <v>0.3675000469290524</v>
       </c>
       <c r="C20">
-        <v>0.1571577132364155</v>
+        <v>0.06374896612199166</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6928613626216702</v>
+        <v>0.6232659474693207</v>
       </c>
       <c r="F20">
-        <v>1.626665971054948</v>
+        <v>2.05418277420253</v>
       </c>
       <c r="G20">
-        <v>0.1857340889197303</v>
+        <v>0.3860003102621974</v>
       </c>
       <c r="H20">
-        <v>0.1936439114866602</v>
+        <v>0.5601580008662239</v>
       </c>
       <c r="I20">
-        <v>0.1520228328204105</v>
+        <v>0.4404077905342909</v>
       </c>
       <c r="J20">
-        <v>0.0277472444774709</v>
+        <v>0.04072116366868705</v>
       </c>
       <c r="K20">
-        <v>1.21856711328175</v>
+        <v>0.3829494621191714</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9923745988645223</v>
+        <v>0.4963496747305385</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7486743150534778</v>
+        <v>1.835655283120417</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.305663744437283</v>
+        <v>0.412440785979868</v>
       </c>
       <c r="C21">
-        <v>0.1726628501097309</v>
+        <v>0.068817746501324</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7717316401648162</v>
+        <v>0.6401506035447539</v>
       </c>
       <c r="F21">
-        <v>1.774576913658947</v>
+        <v>2.07418120554037</v>
       </c>
       <c r="G21">
-        <v>0.1878311408100402</v>
+        <v>0.3813888541018358</v>
       </c>
       <c r="H21">
-        <v>0.1877635177545756</v>
+        <v>0.5541800983367509</v>
       </c>
       <c r="I21">
-        <v>0.1426921645444885</v>
+        <v>0.4333771101571404</v>
       </c>
       <c r="J21">
-        <v>0.0279663030473607</v>
+        <v>0.04074051878859564</v>
       </c>
       <c r="K21">
-        <v>1.362270120302867</v>
+        <v>0.4291306863909483</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.119068077696973</v>
+        <v>0.5308272771863756</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7411939228248343</v>
+        <v>1.813600942938962</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.398069622057506</v>
+        <v>0.4417350208381379</v>
       </c>
       <c r="C22">
-        <v>0.182817939952173</v>
+        <v>0.07211792214171453</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8241906781920676</v>
+        <v>0.6514256276200712</v>
       </c>
       <c r="F22">
-        <v>1.874501506538252</v>
+        <v>2.0882512414845</v>
       </c>
       <c r="G22">
-        <v>0.1900470754684775</v>
+        <v>0.3786411543796362</v>
       </c>
       <c r="H22">
-        <v>0.184401182134124</v>
+        <v>0.5504897004930669</v>
       </c>
       <c r="I22">
-        <v>0.1372022372342538</v>
+        <v>0.4290150842145657</v>
       </c>
       <c r="J22">
-        <v>0.02812552151394243</v>
+        <v>0.04076047607947686</v>
       </c>
       <c r="K22">
-        <v>1.456339193311038</v>
+        <v>0.4592165899967426</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.202532449423202</v>
+        <v>0.5534645474661062</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7390981886669152</v>
+        <v>1.80019859868392</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.348733476868262</v>
+        <v>0.4261074005335956</v>
       </c>
       <c r="C23">
-        <v>0.1773956619814783</v>
+        <v>0.07035772897349091</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7961031975068664</v>
+        <v>0.6453860140267125</v>
       </c>
       <c r="F23">
-        <v>1.820855224265046</v>
+        <v>2.080650310335955</v>
       </c>
       <c r="G23">
-        <v>0.188783515951009</v>
+        <v>0.3800832634538338</v>
       </c>
       <c r="H23">
-        <v>0.1861502134120272</v>
+        <v>0.5524395275457223</v>
       </c>
       <c r="I23">
-        <v>0.1400746090183773</v>
+        <v>0.4313218488278618</v>
       </c>
       <c r="J23">
-        <v>0.02803904704831872</v>
+        <v>0.0407491584964319</v>
       </c>
       <c r="K23">
-        <v>1.406116063213119</v>
+        <v>0.4431681862416497</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.157920106051961</v>
+        <v>0.5413731938086102</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7399505110995506</v>
+        <v>1.807259060989153</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.162213632843276</v>
+        <v>0.3667642576918126</v>
       </c>
       <c r="C24">
-        <v>0.1569045808407168</v>
+        <v>0.06366591253467391</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6915864692738154</v>
+        <v>0.6229940341098796</v>
       </c>
       <c r="F24">
-        <v>1.624299797145184</v>
+        <v>2.05387279134186</v>
       </c>
       <c r="G24">
-        <v>0.185713320494898</v>
+        <v>0.3860801670879965</v>
       </c>
       <c r="H24">
-        <v>0.1937478121840073</v>
+        <v>0.5602593622811298</v>
       </c>
       <c r="I24">
-        <v>0.1521851584182397</v>
+        <v>0.4405266317781322</v>
       </c>
       <c r="J24">
-        <v>0.02774392897578615</v>
+        <v>0.04072097127839491</v>
       </c>
       <c r="K24">
-        <v>1.216220283070641</v>
+        <v>0.3821930762612737</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.990313927921882</v>
+        <v>0.4957879402358998</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7488414199508497</v>
+        <v>1.836032808576618</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9614390604462244</v>
+        <v>0.3024425506540638</v>
       </c>
       <c r="C25">
-        <v>0.1348622938392339</v>
+        <v>0.05639605883851573</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.582238600451241</v>
+        <v>0.599873878132648</v>
       </c>
       <c r="F25">
-        <v>1.424678726756753</v>
+        <v>2.029281967782481</v>
       </c>
       <c r="G25">
-        <v>0.1856950895384557</v>
+        <v>0.3936877512670094</v>
       </c>
       <c r="H25">
-        <v>0.2038630630501075</v>
+        <v>0.5696241574497662</v>
       </c>
       <c r="I25">
-        <v>0.1676630425478329</v>
+        <v>0.4514537761857724</v>
       </c>
       <c r="J25">
-        <v>0.02749183246166886</v>
+        <v>0.04072220838811447</v>
       </c>
       <c r="K25">
-        <v>1.011760783019866</v>
+        <v>0.3160293033705841</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8118784617964536</v>
+        <v>0.4470754509051318</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7694081191244351</v>
+        <v>1.871404985216202</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_76/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_76/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2548275340367354</v>
+        <v>0.8136656692093425</v>
       </c>
       <c r="C2">
-        <v>0.05100019544823908</v>
+        <v>0.1186491462820101</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5837379712630479</v>
+        <v>0.504089753540633</v>
       </c>
       <c r="F2">
-        <v>2.014861140361404</v>
+        <v>1.286716185657028</v>
       </c>
       <c r="G2">
-        <v>0.4002651927567982</v>
+        <v>0.1881692880864421</v>
       </c>
       <c r="H2">
-        <v>0.5773205202246245</v>
+        <v>0.2128155153694422</v>
       </c>
       <c r="I2">
-        <v>0.4603573165992358</v>
+        <v>0.1809362283297524</v>
       </c>
       <c r="J2">
-        <v>0.04075061024878224</v>
+        <v>0.02736035147733773</v>
       </c>
       <c r="K2">
-        <v>0.2669875471203795</v>
+        <v>0.8612295669476566</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4116067872690437</v>
+        <v>0.6819962220567746</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.901172913236792</v>
+        <v>0.7929524827640932</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2224060481534025</v>
+        <v>0.7134174402847862</v>
       </c>
       <c r="C3">
-        <v>0.04731724755653488</v>
+        <v>0.1076558057899604</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5733558073701417</v>
+        <v>0.4523517050127168</v>
       </c>
       <c r="F3">
-        <v>2.007384071406719</v>
+        <v>1.198093462273434</v>
       </c>
       <c r="G3">
-        <v>0.405329823849307</v>
+        <v>0.1912386010166713</v>
       </c>
       <c r="H3">
-        <v>0.5830368421796521</v>
+        <v>0.2197535901749887</v>
       </c>
       <c r="I3">
-        <v>0.4669261400233662</v>
+        <v>0.1910097553374932</v>
       </c>
       <c r="J3">
-        <v>0.04078715264090071</v>
+        <v>0.02730370889397449</v>
       </c>
       <c r="K3">
-        <v>0.2335551542479664</v>
+        <v>0.7590815150468018</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3878202468631144</v>
+        <v>0.5946708108064698</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.923667207578859</v>
+        <v>0.8136697184885548</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2024267842359109</v>
+        <v>0.6517749118390839</v>
       </c>
       <c r="C4">
-        <v>0.0450433318645338</v>
+        <v>0.1008984967926523</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5672541858230957</v>
+        <v>0.4211123131091981</v>
       </c>
       <c r="F4">
-        <v>2.003925152746646</v>
+        <v>1.145854760640859</v>
       </c>
       <c r="G4">
-        <v>0.4087383533255107</v>
+        <v>0.1937606880274387</v>
       </c>
       <c r="H4">
-        <v>0.5867937445209463</v>
+        <v>0.2244221868272689</v>
       </c>
       <c r="I4">
-        <v>0.4712230754862468</v>
+        <v>0.1976978956719755</v>
       </c>
       <c r="J4">
-        <v>0.04081817130700216</v>
+        <v>0.02728454099231037</v>
       </c>
       <c r="K4">
-        <v>0.2129334820532591</v>
+        <v>0.6962564778131792</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3733402334961653</v>
+        <v>0.5413247568158752</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.938622448692144</v>
+        <v>0.8285898835333967</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1942674612005533</v>
+        <v>0.6266274107532297</v>
       </c>
       <c r="C5">
-        <v>0.04411359653747127</v>
+        <v>0.09814240042634026</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5648364898840015</v>
+        <v>0.4085043590187993</v>
       </c>
       <c r="F5">
-        <v>2.002800331980865</v>
+        <v>1.125082406058979</v>
       </c>
       <c r="G5">
-        <v>0.4102024090473435</v>
+        <v>0.1949417682347594</v>
       </c>
       <c r="H5">
-        <v>0.5883868636693883</v>
+        <v>0.2264244304041405</v>
       </c>
       <c r="I5">
-        <v>0.4730403769000677</v>
+        <v>0.2005457101358257</v>
       </c>
       <c r="J5">
-        <v>0.04083297782120354</v>
+        <v>0.02728059973283514</v>
       </c>
       <c r="K5">
-        <v>0.2045069160809447</v>
+        <v>0.6706229714843488</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3674712665587236</v>
+        <v>0.5196445640618421</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.945004271801061</v>
+        <v>0.8352019885451227</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.192911565283822</v>
+        <v>0.6224498732665609</v>
       </c>
       <c r="C6">
-        <v>0.04395902960483511</v>
+        <v>0.09768458908128252</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5644391894450393</v>
+        <v>0.4064179135939412</v>
       </c>
       <c r="F6">
-        <v>2.002630754284098</v>
+        <v>1.121663396638368</v>
       </c>
       <c r="G6">
-        <v>0.410450044720065</v>
+        <v>0.1951469462490181</v>
       </c>
       <c r="H6">
-        <v>0.5886551544301781</v>
+        <v>0.226762841239367</v>
       </c>
       <c r="I6">
-        <v>0.4733461397415368</v>
+        <v>0.2010258592661724</v>
       </c>
       <c r="J6">
-        <v>0.04083556750565087</v>
+        <v>0.02728017743767275</v>
       </c>
       <c r="K6">
-        <v>0.2031063151932813</v>
+        <v>0.6663644815626384</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3664986564677903</v>
+        <v>0.5160478609294756</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.946081325285569</v>
+        <v>0.8363314558822523</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2023168152869914</v>
+        <v>0.651435882394054</v>
       </c>
       <c r="C7">
-        <v>0.04503080557962846</v>
+        <v>0.1008613377324679</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5672213013749854</v>
+        <v>0.4209417957967858</v>
       </c>
       <c r="F7">
-        <v>2.003908830138059</v>
+        <v>1.145572571739919</v>
       </c>
       <c r="G7">
-        <v>0.4087577943286504</v>
+        <v>0.1937760047737314</v>
       </c>
       <c r="H7">
-        <v>0.5868149782013532</v>
+        <v>0.2244487897460274</v>
       </c>
       <c r="I7">
-        <v>0.4712473159852575</v>
+        <v>0.1977358122617812</v>
       </c>
       <c r="J7">
-        <v>0.04081836221096857</v>
+        <v>0.02728447224198405</v>
       </c>
       <c r="K7">
-        <v>0.2128199310626684</v>
+        <v>0.6959109107460648</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3732609535531068</v>
+        <v>0.5410321446392814</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.938707352539694</v>
+        <v>0.828676929812417</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2436639575179811</v>
+        <v>0.7791154887291327</v>
       </c>
       <c r="C8">
-        <v>0.04973296179205988</v>
+        <v>0.1148597976268917</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5801015804401999</v>
+        <v>0.4861344378219385</v>
       </c>
       <c r="F8">
-        <v>2.012048120590805</v>
+        <v>1.255687761901882</v>
       </c>
       <c r="G8">
-        <v>0.4019494025532637</v>
+        <v>0.1890909640048051</v>
       </c>
       <c r="H8">
-        <v>0.5792402473777756</v>
+        <v>0.2151211208391217</v>
       </c>
       <c r="I8">
-        <v>0.4625675075200597</v>
+        <v>0.184302656037385</v>
       </c>
       <c r="J8">
-        <v>0.04076143389398013</v>
+        <v>0.02733754671723787</v>
       </c>
       <c r="K8">
-        <v>0.2554799162597021</v>
+        <v>0.8260275869401283</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4033794239959789</v>
+        <v>0.651823938232468</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.908691497613248</v>
+        <v>0.7996262472903055</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3241499366449148</v>
+        <v>1.029042449825425</v>
       </c>
       <c r="C9">
-        <v>0.05885171298893965</v>
+        <v>0.1422824678704302</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6075240464848264</v>
+        <v>0.6186703504204445</v>
       </c>
       <c r="F9">
-        <v>2.036992546899782</v>
+        <v>1.49041579529765</v>
       </c>
       <c r="G9">
-        <v>0.3909732725698802</v>
+        <v>0.1852926604418315</v>
       </c>
       <c r="H9">
-        <v>0.566345259464903</v>
+        <v>0.2002125792840701</v>
       </c>
       <c r="I9">
-        <v>0.4476396313478777</v>
+        <v>0.1621448783971431</v>
       </c>
       <c r="J9">
-        <v>0.04071754021184759</v>
+        <v>0.02756816034103515</v>
       </c>
       <c r="K9">
-        <v>0.338368125273746</v>
+        <v>1.080611937799176</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4634227939562621</v>
+        <v>0.8717184569531256</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.858911068301879</v>
+        <v>0.7611084489086153</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3828963921730235</v>
+        <v>1.212791655335081</v>
       </c>
       <c r="C10">
-        <v>0.06548635687910576</v>
+        <v>0.1624597860275401</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.628990383837575</v>
+        <v>0.7196603936415471</v>
       </c>
       <c r="F10">
-        <v>2.060802677564226</v>
+        <v>1.676592236582493</v>
       </c>
       <c r="G10">
-        <v>0.3843626676071921</v>
+        <v>0.1862703714578799</v>
       </c>
       <c r="H10">
-        <v>0.5580637616733455</v>
+        <v>0.1915272702032595</v>
       </c>
       <c r="I10">
-        <v>0.4379496403777665</v>
+        <v>0.1486981492966457</v>
       </c>
       <c r="J10">
-        <v>0.04072614477448333</v>
+        <v>0.0278186789741639</v>
       </c>
       <c r="K10">
-        <v>0.398774590049527</v>
+        <v>1.267717650898447</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5081249533812908</v>
+        <v>1.035594667399479</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.827881549641702</v>
+        <v>0.7455129153157998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4095331179052266</v>
+        <v>1.296509346236178</v>
       </c>
       <c r="C11">
-        <v>0.06849002154322648</v>
+        <v>0.1716569896405531</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6390425070479608</v>
+        <v>0.7665695473840373</v>
       </c>
       <c r="F11">
-        <v>2.07282705502206</v>
+        <v>1.764808056133518</v>
       </c>
       <c r="G11">
-        <v>0.3816721693352818</v>
+        <v>0.1876471111489764</v>
       </c>
       <c r="H11">
-        <v>0.5545548381997705</v>
+        <v>0.1881170190432684</v>
       </c>
       <c r="I11">
-        <v>0.4338191179042781</v>
+        <v>0.1432619895371232</v>
       </c>
       <c r="J11">
-        <v>0.04073883782801246</v>
+        <v>0.0279511817893443</v>
       </c>
       <c r="K11">
-        <v>0.4261437471649288</v>
+        <v>1.35295050048876</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.528587068439144</v>
+        <v>1.110821544349356</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.814971105925721</v>
+        <v>0.7415192587303068</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4196066837079968</v>
+        <v>1.3282380334918</v>
       </c>
       <c r="C12">
-        <v>0.06962529392416172</v>
+        <v>0.1751433875049884</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6428901979744523</v>
+        <v>0.7844881981280452</v>
       </c>
       <c r="F12">
-        <v>2.077551973268243</v>
+        <v>1.798767884339611</v>
       </c>
       <c r="G12">
-        <v>0.3806989892391073</v>
+        <v>0.18831260155644</v>
       </c>
       <c r="H12">
-        <v>0.5532632302441982</v>
+        <v>0.1869077433709734</v>
       </c>
       <c r="I12">
-        <v>0.4322949366205044</v>
+        <v>0.141307261098655</v>
       </c>
       <c r="J12">
-        <v>0.04074489876068554</v>
+        <v>0.02800410447231272</v>
       </c>
       <c r="K12">
-        <v>0.4364913990845309</v>
+        <v>1.385251474949484</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.536353525599651</v>
+        <v>1.139420733099499</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.810255709237978</v>
+        <v>0.740483460319993</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4174377573821459</v>
+        <v>1.321403374934107</v>
       </c>
       <c r="C13">
-        <v>0.06938088944335163</v>
+        <v>0.174392352268967</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.642059699389506</v>
+        <v>0.7806219279594018</v>
       </c>
       <c r="F13">
-        <v>2.076526748116692</v>
+        <v>1.791428572346746</v>
       </c>
       <c r="G13">
-        <v>0.3809065487661982</v>
+        <v>0.1881626969053016</v>
       </c>
       <c r="H13">
-        <v>0.5535397492136624</v>
+        <v>0.1871644581886258</v>
       </c>
       <c r="I13">
-        <v>0.432621418342892</v>
+        <v>0.1417235308066687</v>
       </c>
       <c r="J13">
-        <v>0.04074353777038375</v>
+        <v>0.02799258312838049</v>
       </c>
       <c r="K13">
-        <v>0.4342635888844768</v>
+        <v>1.378293625740611</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5346800895794956</v>
+        <v>1.133256139310646</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.811263533892173</v>
+        <v>0.7406848363480947</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4103621440336269</v>
+        <v>1.299119102879558</v>
       </c>
       <c r="C14">
-        <v>0.06858346457831033</v>
+        <v>0.1719437393960561</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6393582343444848</v>
+        <v>0.7680405200670606</v>
       </c>
       <c r="F14">
-        <v>2.073212338877624</v>
+        <v>1.767590554441938</v>
       </c>
       <c r="G14">
-        <v>0.3815911896239896</v>
+        <v>0.1876989121266561</v>
       </c>
       <c r="H14">
-        <v>0.5544478324372974</v>
+        <v>0.1880158596019541</v>
       </c>
       <c r="I14">
-        <v>0.4336929214710104</v>
+        <v>0.1430990567485164</v>
       </c>
       <c r="J14">
-        <v>0.04073931137145692</v>
+        <v>0.0279554802425146</v>
       </c>
       <c r="K14">
-        <v>0.4269953880722142</v>
+        <v>1.355607367670842</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5292256628215455</v>
+        <v>1.113172075346483</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.814579688755984</v>
+        <v>0.7414243105454119</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4060263910517108</v>
+        <v>1.285473057453515</v>
       </c>
       <c r="C15">
-        <v>0.0680947367338689</v>
+        <v>0.1704443942951457</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6377088676682803</v>
+        <v>0.7603547461134497</v>
       </c>
       <c r="F15">
-        <v>2.071204507780479</v>
+        <v>1.753062757628285</v>
       </c>
       <c r="G15">
-        <v>0.382016500633874</v>
+        <v>0.1874339148147897</v>
       </c>
       <c r="H15">
-        <v>0.5550088967928843</v>
+        <v>0.188548195059802</v>
       </c>
       <c r="I15">
-        <v>0.4343544533601591</v>
+        <v>0.1439553096013491</v>
       </c>
       <c r="J15">
-        <v>0.04073688569563316</v>
+        <v>0.02793311383515551</v>
       </c>
       <c r="K15">
-        <v>0.4225412437941145</v>
+        <v>1.341714909626575</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5258869895339444</v>
+        <v>1.100885102670013</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.816633531903079</v>
+        <v>0.741940258128281</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3811538086025337</v>
+        <v>1.207323780810867</v>
       </c>
       <c r="C16">
-        <v>0.06528976322373126</v>
+        <v>0.1618591788531347</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6283392203872467</v>
+        <v>0.7166155892585522</v>
       </c>
       <c r="F16">
-        <v>2.06004086230547</v>
+        <v>1.670902028362363</v>
       </c>
       <c r="G16">
-        <v>0.3845448804038796</v>
+        <v>0.1862000035052134</v>
       </c>
       <c r="H16">
-        <v>0.5582982764539111</v>
+        <v>0.1917613851330984</v>
       </c>
       <c r="I16">
-        <v>0.4382251683665483</v>
+        <v>0.1490676133474427</v>
       </c>
       <c r="J16">
-        <v>0.04072549121805658</v>
+        <v>0.02781039947253738</v>
       </c>
       <c r="K16">
-        <v>0.3969836829905944</v>
+        <v>1.262150538961635</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5067902295212932</v>
+        <v>1.030693312400707</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.82874954523102</v>
+        <v>0.7458388797991091</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3658724710269325</v>
+        <v>1.159420359336139</v>
       </c>
       <c r="C17">
-        <v>0.06356524745493175</v>
+        <v>0.1565978116204292</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6226646782938872</v>
+        <v>0.6900419965810443</v>
       </c>
       <c r="F17">
-        <v>2.053497885075799</v>
+        <v>1.621434398026182</v>
       </c>
       <c r="G17">
-        <v>0.3861771538218335</v>
+        <v>0.1856887485775616</v>
       </c>
       <c r="H17">
-        <v>0.5603823734813957</v>
+        <v>0.193874081259878</v>
       </c>
       <c r="I17">
-        <v>0.440670839802241</v>
+        <v>0.1523823246879825</v>
       </c>
       <c r="J17">
-        <v>0.04072074380956003</v>
+        <v>0.02773992276736337</v>
       </c>
       <c r="K17">
-        <v>0.3812763130590326</v>
+        <v>1.213376143232978</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4951072357231254</v>
+        <v>0.9878169550678635</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.836491126920208</v>
+        <v>0.7490459324833125</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3570748670322246</v>
+        <v>1.131879228418455</v>
       </c>
       <c r="C18">
-        <v>0.06257199393517965</v>
+        <v>0.1535732855927563</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6194278493738352</v>
+        <v>0.6748476847375997</v>
       </c>
       <c r="F18">
-        <v>2.049846831815273</v>
+        <v>1.593310492026546</v>
       </c>
       <c r="G18">
-        <v>0.3871457968659087</v>
+        <v>0.1854817664969701</v>
       </c>
       <c r="H18">
-        <v>0.5616054105887045</v>
+        <v>0.1951398684473276</v>
       </c>
       <c r="I18">
-        <v>0.4421036420390916</v>
+        <v>0.154352565828944</v>
       </c>
       <c r="J18">
-        <v>0.04071884000513926</v>
+        <v>0.0277011264604905</v>
       </c>
       <c r="K18">
-        <v>0.3722315286544813</v>
+        <v>1.185332931924933</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4883994498220687</v>
+        <v>0.9632185474762309</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.84105729062702</v>
+        <v>0.7511804642103641</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3540947631933875</v>
+        <v>1.122556040810537</v>
       </c>
       <c r="C19">
-        <v>0.06223546431041882</v>
+        <v>0.1525494923343871</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.61833655797723</v>
+        <v>0.6697181631313214</v>
       </c>
       <c r="F19">
-        <v>2.048629934799564</v>
+        <v>1.583843251514651</v>
       </c>
       <c r="G19">
-        <v>0.3874788779420086</v>
+        <v>0.1854263433520771</v>
       </c>
       <c r="H19">
-        <v>0.5620236871131539</v>
+        <v>0.1955770081232444</v>
       </c>
       <c r="I19">
-        <v>0.4425932482023818</v>
+        <v>0.1550304226475401</v>
       </c>
       <c r="J19">
-        <v>0.04071833765526556</v>
+        <v>0.02768828716962091</v>
       </c>
       <c r="K19">
-        <v>0.3691673667001965</v>
+        <v>1.175839550185913</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4861303740158789</v>
+        <v>0.9549003261641786</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.842622786729223</v>
+        <v>0.751952072542295</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3675000469290524</v>
+        <v>1.164518498351924</v>
       </c>
       <c r="C20">
-        <v>0.06374896612199166</v>
+        <v>0.1571577132361881</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6232659474693207</v>
+        <v>0.6928613626216986</v>
       </c>
       <c r="F20">
-        <v>2.05418277420253</v>
+        <v>1.626665971054948</v>
       </c>
       <c r="G20">
-        <v>0.3860003102621974</v>
+        <v>0.1857340889197303</v>
       </c>
       <c r="H20">
-        <v>0.5601580008662239</v>
+        <v>0.1936439114866531</v>
       </c>
       <c r="I20">
-        <v>0.4404077905342909</v>
+        <v>0.1520228328204087</v>
       </c>
       <c r="J20">
-        <v>0.04072116366868705</v>
+        <v>0.02774724447749399</v>
       </c>
       <c r="K20">
-        <v>0.3829494621191714</v>
+        <v>1.218567113281807</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4963496747305385</v>
+        <v>0.9923745988645294</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.835655283120417</v>
+        <v>0.7486743150535347</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.412440785979868</v>
+        <v>1.305663744437567</v>
       </c>
       <c r="C21">
-        <v>0.068817746501324</v>
+        <v>0.1726628501100009</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6401506035447539</v>
+        <v>0.7717316401648304</v>
       </c>
       <c r="F21">
-        <v>2.07418120554037</v>
+        <v>1.774576913658947</v>
       </c>
       <c r="G21">
-        <v>0.3813888541018358</v>
+        <v>0.1878311408099691</v>
       </c>
       <c r="H21">
-        <v>0.5541800983367509</v>
+        <v>0.1877635177545756</v>
       </c>
       <c r="I21">
-        <v>0.4333771101571404</v>
+        <v>0.1426921645444885</v>
       </c>
       <c r="J21">
-        <v>0.04074051878859564</v>
+        <v>0.02796630304734826</v>
       </c>
       <c r="K21">
-        <v>0.4291306863909483</v>
+        <v>1.362270120302895</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5308272771863756</v>
+        <v>1.11906807769698</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.813600942938962</v>
+        <v>0.7411939228248627</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4417350208381379</v>
+        <v>1.398069622057477</v>
       </c>
       <c r="C22">
-        <v>0.07211792214171453</v>
+        <v>0.1828179399518888</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6514256276200712</v>
+        <v>0.8241906781920676</v>
       </c>
       <c r="F22">
-        <v>2.0882512414845</v>
+        <v>1.874501506538252</v>
       </c>
       <c r="G22">
-        <v>0.3786411543796362</v>
+        <v>0.1900470754685415</v>
       </c>
       <c r="H22">
-        <v>0.5504897004930669</v>
+        <v>0.1844011821341098</v>
       </c>
       <c r="I22">
-        <v>0.4290150842145657</v>
+        <v>0.1372022372342538</v>
       </c>
       <c r="J22">
-        <v>0.04076047607947686</v>
+        <v>0.02812552151398329</v>
       </c>
       <c r="K22">
-        <v>0.4592165899967426</v>
+        <v>1.456339193311067</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5534645474661062</v>
+        <v>1.202532449423188</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.80019859868392</v>
+        <v>0.739098188666901</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4261074005335956</v>
+        <v>1.348733476868262</v>
       </c>
       <c r="C23">
-        <v>0.07035772897349091</v>
+        <v>0.1773956619817056</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6453860140267125</v>
+        <v>0.7961031975068806</v>
       </c>
       <c r="F23">
-        <v>2.080650310335955</v>
+        <v>1.820855224265046</v>
       </c>
       <c r="G23">
-        <v>0.3800832634538338</v>
+        <v>0.1887835159510161</v>
       </c>
       <c r="H23">
-        <v>0.5524395275457223</v>
+        <v>0.186150213412148</v>
       </c>
       <c r="I23">
-        <v>0.4313218488278618</v>
+        <v>0.1400746090183791</v>
       </c>
       <c r="J23">
-        <v>0.0407491584964319</v>
+        <v>0.02803904704827787</v>
       </c>
       <c r="K23">
-        <v>0.4431681862416497</v>
+        <v>1.406116063213091</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5413731938086102</v>
+        <v>1.157920106051961</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.807259060989153</v>
+        <v>0.7399505110995648</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3667642576918126</v>
+        <v>1.162213632843304</v>
       </c>
       <c r="C24">
-        <v>0.06366591253467391</v>
+        <v>0.156904580840731</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6229940341098796</v>
+        <v>0.691586469273787</v>
       </c>
       <c r="F24">
-        <v>2.05387279134186</v>
+        <v>1.62429979714517</v>
       </c>
       <c r="G24">
-        <v>0.3860801670879965</v>
+        <v>0.1857133204949051</v>
       </c>
       <c r="H24">
-        <v>0.5602593622811298</v>
+        <v>0.1937478121840073</v>
       </c>
       <c r="I24">
-        <v>0.4405266317781322</v>
+        <v>0.1521851584182468</v>
       </c>
       <c r="J24">
-        <v>0.04072097127839491</v>
+        <v>0.02774392897572575</v>
       </c>
       <c r="K24">
-        <v>0.3821930762612737</v>
+        <v>1.216220283070584</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4957879402358998</v>
+        <v>0.990313927921882</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.836032808576618</v>
+        <v>0.7488414199508355</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3024425506540638</v>
+        <v>0.9614390604465086</v>
       </c>
       <c r="C25">
-        <v>0.05639605883851573</v>
+        <v>0.1348622938396886</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.599873878132648</v>
+        <v>0.5822386004512339</v>
       </c>
       <c r="F25">
-        <v>2.029281967782481</v>
+        <v>1.424678726756753</v>
       </c>
       <c r="G25">
-        <v>0.3936877512670094</v>
+        <v>0.1856950895385197</v>
       </c>
       <c r="H25">
-        <v>0.5696241574497662</v>
+        <v>0.2038630630501075</v>
       </c>
       <c r="I25">
-        <v>0.4514537761857724</v>
+        <v>0.1676630425478294</v>
       </c>
       <c r="J25">
-        <v>0.04072220838811447</v>
+        <v>0.02749183246174702</v>
       </c>
       <c r="K25">
-        <v>0.3160293033705841</v>
+        <v>1.011760783020009</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4470754509051318</v>
+        <v>0.8118784617964607</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.871404985216202</v>
+        <v>0.7694081191244351</v>
       </c>
     </row>
   </sheetData>
